--- a/biology/Histoire de la zoologie et de la botanique/Roland_Sabatier_(illustrateur)/Roland_Sabatier_(illustrateur).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Roland_Sabatier_(illustrateur)/Roland_Sabatier_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Sabatier, né en 1942 dans le Doubs, est un illustrateur d'édition et de presse français,  vivant en région parisienne.
 Ses travaux, parfois réalisés avec son épouse Claudine, touchent des domaines aussi variés que l'illustration de jeunesse, le dessin d'humour, l'histoire naturelle, l'univers de la musique ou le monde de féerie. Il constitue parallèlement un œuvre gravé puisant dans ses domaines de prédilection.
@@ -512,7 +524,9 @@
           <t>Débuts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrivé à Paris en 1960, il entreprend des études d'architecture à l'École des beaux-arts de Paris. À la fin des années 1960, il collabore avec Michel Bridenne au magazine Pilote. Il épouse Claudine en 1970, qui deviendra sa collaboratrice.
 </t>
@@ -543,7 +557,9 @@
           <t>Presse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de 1972 et jusqu'en 1982, il occupe un poste de directeur artistique à la rédaction de l'hebdomadaire Lui, aux éditions Filipacchi.
 Chargé de sélectionner les dessins d'humour paraissant dans le magazine, il entre ainsi en contact avec la plupart des dessinateurs d'humour de l'époque.
@@ -576,7 +592,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès la fin des années 1970, il commence à se tourner vers le monde de l'édition pour enfants, notamment chez Fernand Nathan (livres scolaires) et Gallimard Jeunesse (collections Folio, Enfantimages, Folio Cadet, etc.).
 Tout au long des années 1980, il fait partie des « HA! » (Humoristes Associés), regroupant des dessinateurs humoristiques comme Avoine, Barbe, Blachon, Bridenne, Fred, JY, Laville, Loup, Mordillo, Mose, Napo, Nicoulaud, Serre, Siné, Soulas ou Trez, qui publient des recueils collectifs sur les thèmes du vin, de la table, du ski, des sept péchés capitaux, etc.
@@ -611,7 +629,9 @@
           <t>Gravure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le début des années 2000, Roland Sabatier participe à l'animation et aux réalisations de « la Tarlatane », un atelier de gravure dans la banlieue sud de Paris, tout en développant sa production personnelle.
 </t>
